--- a/data/Questions/Revised-fovea-answers.xlsx
+++ b/data/Questions/Revised-fovea-answers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://noesyssoft-my.sharepoint.com/personal/zeenat_noesyssoftware_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://noesyssoft-my.sharepoint.com/personal/gautam_noesyssoftware_com/Documents/Documents/Projects/Infoverve-Helper/data/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{F2CFBD8C-8C8E-4F1C-95D9-DF35A4BFA8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70ADE7C1-EA6D-441C-B605-BC37C9AF4AF4}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{F2CFBD8C-8C8E-4F1C-95D9-DF35A4BFA8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5E811E-46BF-4E1C-95B2-7543A24CC136}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{87FA5762-B173-4E0D-80B3-AC474C76CD5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{87FA5762-B173-4E0D-80B3-AC474C76CD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Revised-fovea-content" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -744,7 +745,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,20 +1249,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376122FD-3244-4AA1-BBBF-78686DAA61F2}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="30.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.95">
+    <row r="1" spans="1:4" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1275,12 +1276,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42">
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87">
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="246.6">
+    <row r="4" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="246.6">
+    <row r="5" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="261">
+    <row r="6" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5">
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="116.1">
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="203.1">
+    <row r="9" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1378,12 +1379,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="409.5">
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="217.5">
+    <row r="12" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="362.45">
+    <row r="13" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.5">
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="217.5">
+    <row r="15" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72.599999999999994">
+    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="188.45">
+    <row r="17" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="261">
+    <row r="18" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="188.45">
+    <row r="19" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57.95">
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="203.1">
+    <row r="21" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.5">
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="159.6">
+    <row r="23" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="116.1">
+    <row r="24" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="409.5">
+    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="362.45">
+    <row r="26" spans="1:4" ht="360" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="290.10000000000002">
+    <row r="27" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="188.45">
+    <row r="28" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="159.6">
+    <row r="29" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="174">
+    <row r="30" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="409.5">
+    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="130.5">
+    <row r="32" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="231.95">
+    <row r="33" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="231.95">
+    <row r="34" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="174">
+    <row r="35" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -1712,13 +1713,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="42">
+    <row r="36" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:4" ht="409.5">
+    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="261">
+    <row r="38" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="43.5">
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -1783,13 +1784,572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52C034E-B85D-4BFB-81B9-7A6538EC3BD6}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>-18.41</v>
+      </c>
+      <c r="B1">
+        <v>-19.73</v>
+      </c>
+      <c r="C1">
+        <v>-19.73</v>
+      </c>
+      <c r="D1">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-20.38</v>
+      </c>
+      <c r="B2">
+        <v>-20.38</v>
+      </c>
+      <c r="C2">
+        <v>-20.38</v>
+      </c>
+      <c r="D2">
+        <v>-18.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-19.73</v>
+      </c>
+      <c r="B3">
+        <v>-19.73</v>
+      </c>
+      <c r="C3">
+        <v>-19.73</v>
+      </c>
+      <c r="D3">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-20.38</v>
+      </c>
+      <c r="B4">
+        <v>-20.38</v>
+      </c>
+      <c r="C4">
+        <v>-20.38</v>
+      </c>
+      <c r="D4">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-18.41</v>
+      </c>
+      <c r="B5">
+        <v>-18.41</v>
+      </c>
+      <c r="C5">
+        <v>-18.41</v>
+      </c>
+      <c r="D5">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-19.73</v>
+      </c>
+      <c r="B6">
+        <v>-20.38</v>
+      </c>
+      <c r="C6">
+        <v>-20.38</v>
+      </c>
+      <c r="D6">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-19.73</v>
+      </c>
+      <c r="B7">
+        <v>-20.38</v>
+      </c>
+      <c r="C7">
+        <v>-20.38</v>
+      </c>
+      <c r="D7">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-20.38</v>
+      </c>
+      <c r="B8">
+        <v>-19.73</v>
+      </c>
+      <c r="C8">
+        <v>-19.73</v>
+      </c>
+      <c r="D8">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-20.38</v>
+      </c>
+      <c r="B9">
+        <v>-20.38</v>
+      </c>
+      <c r="C9">
+        <v>-20.38</v>
+      </c>
+      <c r="D9">
+        <v>-24.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-42.74</v>
+      </c>
+      <c r="B10">
+        <v>-19.73</v>
+      </c>
+      <c r="C10">
+        <v>-19.73</v>
+      </c>
+      <c r="D10">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-19.73</v>
+      </c>
+      <c r="B11">
+        <v>-20.38</v>
+      </c>
+      <c r="C11">
+        <v>-20.38</v>
+      </c>
+      <c r="D11">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-21.7</v>
+      </c>
+      <c r="B12">
+        <v>-20.38</v>
+      </c>
+      <c r="C12">
+        <v>-20.38</v>
+      </c>
+      <c r="D12">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-18.41</v>
+      </c>
+      <c r="B13">
+        <v>-19.73</v>
+      </c>
+      <c r="C13">
+        <v>-19.73</v>
+      </c>
+      <c r="D13">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-19.73</v>
+      </c>
+      <c r="B14">
+        <v>-20.38</v>
+      </c>
+      <c r="C14">
+        <v>-20.38</v>
+      </c>
+      <c r="D14">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-40.11</v>
+      </c>
+      <c r="B15">
+        <v>-19.73</v>
+      </c>
+      <c r="C15">
+        <v>-19.73</v>
+      </c>
+      <c r="D15">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-20.38</v>
+      </c>
+      <c r="B16">
+        <v>-20.38</v>
+      </c>
+      <c r="C16">
+        <v>-20.38</v>
+      </c>
+      <c r="D16">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-23.01</v>
+      </c>
+      <c r="B17">
+        <v>-19.07</v>
+      </c>
+      <c r="C17">
+        <v>-19.07</v>
+      </c>
+      <c r="D17">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-20.38</v>
+      </c>
+      <c r="B18">
+        <v>-20.38</v>
+      </c>
+      <c r="C18">
+        <v>-20.38</v>
+      </c>
+      <c r="D18">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-20.38</v>
+      </c>
+      <c r="B19">
+        <v>-20.38</v>
+      </c>
+      <c r="C19">
+        <v>-20.38</v>
+      </c>
+      <c r="D19">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-19.73</v>
+      </c>
+      <c r="B20">
+        <v>-19.73</v>
+      </c>
+      <c r="C20">
+        <v>-19.73</v>
+      </c>
+      <c r="D20">
+        <v>-18.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-20.38</v>
+      </c>
+      <c r="B21">
+        <v>-20.38</v>
+      </c>
+      <c r="C21">
+        <v>-20.38</v>
+      </c>
+      <c r="D21">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-20.38</v>
+      </c>
+      <c r="B22">
+        <v>-19.73</v>
+      </c>
+      <c r="C22">
+        <v>-19.73</v>
+      </c>
+      <c r="D22">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-19.73</v>
+      </c>
+      <c r="B23">
+        <v>-20.38</v>
+      </c>
+      <c r="C23">
+        <v>-20.38</v>
+      </c>
+      <c r="D23">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-20.38</v>
+      </c>
+      <c r="B24">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="C24">
+        <v>-20.38</v>
+      </c>
+      <c r="D24">
+        <v>-18.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-23.01</v>
+      </c>
+      <c r="B25">
+        <v>-23.01</v>
+      </c>
+      <c r="C25">
+        <v>-19.73</v>
+      </c>
+      <c r="D25">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-20.38</v>
+      </c>
+      <c r="B26">
+        <v>-20.38</v>
+      </c>
+      <c r="C26">
+        <v>-20.38</v>
+      </c>
+      <c r="D26">
+        <v>-41.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-20.38</v>
+      </c>
+      <c r="B27">
+        <v>-19.73</v>
+      </c>
+      <c r="C27">
+        <v>-19.73</v>
+      </c>
+      <c r="D27">
+        <v>-18.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-20.38</v>
+      </c>
+      <c r="B28">
+        <v>-17.75</v>
+      </c>
+      <c r="C28">
+        <v>-17.75</v>
+      </c>
+      <c r="D28">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-17.75</v>
+      </c>
+      <c r="B29">
+        <v>-18.41</v>
+      </c>
+      <c r="C29">
+        <v>-18.41</v>
+      </c>
+      <c r="D29">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-20.38</v>
+      </c>
+      <c r="B30">
+        <v>-18.41</v>
+      </c>
+      <c r="C30">
+        <v>-18.41</v>
+      </c>
+      <c r="D30">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="B31">
+        <v>-21.7</v>
+      </c>
+      <c r="C31">
+        <v>-24.99</v>
+      </c>
+      <c r="D31">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-19.73</v>
+      </c>
+      <c r="B32">
+        <v>-23.01</v>
+      </c>
+      <c r="C32">
+        <v>-19.73</v>
+      </c>
+      <c r="D32">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-300</v>
+      </c>
+      <c r="B33">
+        <v>-40.11</v>
+      </c>
+      <c r="C33">
+        <v>-20.38</v>
+      </c>
+      <c r="D33">
+        <v>-20.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-20.38</v>
+      </c>
+      <c r="B34">
+        <v>-20.38</v>
+      </c>
+      <c r="C34">
+        <v>-19.73</v>
+      </c>
+      <c r="D34">
+        <v>-17.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-20.38</v>
+      </c>
+      <c r="B35">
+        <v>-20.38</v>
+      </c>
+      <c r="C35">
+        <v>-22.36</v>
+      </c>
+      <c r="D35">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-19.07</v>
+      </c>
+      <c r="B36">
+        <v>-300</v>
+      </c>
+      <c r="C36">
+        <v>-18.41</v>
+      </c>
+      <c r="D36">
+        <v>-22.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-19.73</v>
+      </c>
+      <c r="B37">
+        <v>-42.74</v>
+      </c>
+      <c r="C37">
+        <v>-300</v>
+      </c>
+      <c r="D37">
+        <v>-19.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>SUM(A1:A37)</f>
+        <v>-1063.3700000000001</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B1:B37)</f>
+        <v>-1063.3699999999999</v>
+      </c>
+      <c r="C38">
+        <v>-41.42</v>
+      </c>
+      <c r="D38">
+        <v>-19.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f>SUM(C2:C38)</f>
+        <v>-1042.3399999999999</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D2:D38)</f>
+        <v>-1042.3400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="aefbda5a-baf9-4cea-bcc4-fec604eaef94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2020,21 +2580,47 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="aefbda5a-baf9-4cea-bcc4-fec604eaef94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0FDD5D-FEB6-4B0C-B7C8-6E7BF0B57DFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF25DBD-148D-46AD-8FF7-CA5BFA2FBD31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aefbda5a-baf9-4cea-bcc4-fec604eaef94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D891B14-4C0E-469F-8DA3-B5B7AE813E55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D891B14-4C0E-469F-8DA3-B5B7AE813E55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aefbda5a-baf9-4cea-bcc4-fec604eaef94"/>
+    <ds:schemaRef ds:uri="8b9e4ac8-ea48-4416-81e6-df9438744b05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF25DBD-148D-46AD-8FF7-CA5BFA2FBD31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0FDD5D-FEB6-4B0C-B7C8-6E7BF0B57DFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Questions/Revised-fovea-answers.xlsx
+++ b/data/Questions/Revised-fovea-answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://noesyssoft-my.sharepoint.com/personal/gautam_noesyssoftware_com/Documents/Documents/Projects/Infoverve-Helper/data/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{F2CFBD8C-8C8E-4F1C-95D9-DF35A4BFA8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5E811E-46BF-4E1C-95B2-7543A24CC136}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{F2CFBD8C-8C8E-4F1C-95D9-DF35A4BFA8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8ADC00E-E0F7-4A68-ACAB-0D41FAFA5463}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{87FA5762-B173-4E0D-80B3-AC474C76CD5B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>Questions</t>
   </si>
@@ -739,6 +739,9 @@
   </si>
   <si>
     <t>What is the difference between common dimension filters and fixed filters?</t>
+  </si>
+  <si>
+    <t>QB13900439</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376122FD-3244-4AA1-BBBF-78686DAA61F2}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,15 +1789,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52C034E-B85D-4BFB-81B9-7A6538EC3BD6}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-18.41</v>
       </c>
@@ -1807,8 +1815,17 @@
       <c r="D1">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>2001022383</v>
+      </c>
+      <c r="J1">
+        <v>7150095</v>
+      </c>
+      <c r="L1">
+        <v>2001022383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-20.38</v>
       </c>
@@ -1821,8 +1838,17 @@
       <c r="D2">
         <v>-18.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>2001023466</v>
+      </c>
+      <c r="J2">
+        <v>22674359</v>
+      </c>
+      <c r="L2">
+        <v>2001067833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-19.73</v>
       </c>
@@ -1835,8 +1861,17 @@
       <c r="D3">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2001061248</v>
+      </c>
+      <c r="J3">
+        <v>32063432</v>
+      </c>
+      <c r="L3">
+        <v>2001184212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-20.38</v>
       </c>
@@ -1849,8 +1884,17 @@
       <c r="D4">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>2001065961</v>
+      </c>
+      <c r="J4">
+        <v>42915776</v>
+      </c>
+      <c r="L4">
+        <v>2001360842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-18.41</v>
       </c>
@@ -1863,8 +1907,17 @@
       <c r="D5">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>2001067833</v>
+      </c>
+      <c r="J5">
+        <v>48882827</v>
+      </c>
+      <c r="L5">
+        <v>2001735911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-19.73</v>
       </c>
@@ -1877,8 +1930,17 @@
       <c r="D6">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>2001140598</v>
+      </c>
+      <c r="J6">
+        <v>49363801</v>
+      </c>
+      <c r="L6">
+        <v>2002146634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-19.73</v>
       </c>
@@ -1891,8 +1953,17 @@
       <c r="D7">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>2001169470</v>
+      </c>
+      <c r="J7">
+        <v>50976790</v>
+      </c>
+      <c r="L7">
+        <v>4103170819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-20.38</v>
       </c>
@@ -1905,8 +1976,17 @@
       <c r="D8">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2001184212</v>
+      </c>
+      <c r="J8">
+        <v>51566563</v>
+      </c>
+      <c r="L8">
+        <v>4103727587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-20.38</v>
       </c>
@@ -1919,8 +1999,17 @@
       <c r="D9">
         <v>-24.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>2001360842</v>
+      </c>
+      <c r="J9">
+        <v>51972319</v>
+      </c>
+      <c r="L9">
+        <v>4104062957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-42.74</v>
       </c>
@@ -1933,8 +2022,17 @@
       <c r="D10">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>2001492419</v>
+      </c>
+      <c r="J10">
+        <v>58498654</v>
+      </c>
+      <c r="L10">
+        <v>4311197045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-19.73</v>
       </c>
@@ -1947,8 +2045,17 @@
       <c r="D11">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>2001714201</v>
+      </c>
+      <c r="J11">
+        <v>63360992</v>
+      </c>
+      <c r="L11">
+        <v>4311239576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-21.7</v>
       </c>
@@ -1961,8 +2068,17 @@
       <c r="D12">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>2001735911</v>
+      </c>
+      <c r="J12">
+        <v>63398544</v>
+      </c>
+      <c r="L12">
+        <v>6204069706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-18.41</v>
       </c>
@@ -1975,8 +2091,14 @@
       <c r="D13">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>2002146634</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-19.73</v>
       </c>
@@ -1989,8 +2111,11 @@
       <c r="D14">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>2002322154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-40.11</v>
       </c>
@@ -2003,8 +2128,11 @@
       <c r="D15">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>3120854081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-20.38</v>
       </c>
@@ -2017,8 +2145,11 @@
       <c r="D16">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>4001309724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-23.01</v>
       </c>
@@ -2031,8 +2162,11 @@
       <c r="D17">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>4102644374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-20.38</v>
       </c>
@@ -2045,8 +2179,11 @@
       <c r="D18">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>4103149764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-20.38</v>
       </c>
@@ -2059,8 +2196,11 @@
       <c r="D19">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>4103170819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-19.73</v>
       </c>
@@ -2073,8 +2213,11 @@
       <c r="D20">
         <v>-18.41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>4103727587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-20.38</v>
       </c>
@@ -2087,8 +2230,11 @@
       <c r="D21">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>4104062957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-20.38</v>
       </c>
@@ -2101,8 +2247,11 @@
       <c r="D22">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>4310275074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-19.73</v>
       </c>
@@ -2115,8 +2264,11 @@
       <c r="D23">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>4310576843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-20.38</v>
       </c>
@@ -2129,8 +2281,11 @@
       <c r="D24">
         <v>-18.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>4310765615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-23.01</v>
       </c>
@@ -2143,8 +2298,11 @@
       <c r="D25">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>4311129436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-20.38</v>
       </c>
@@ -2157,8 +2315,11 @@
       <c r="D26">
         <v>-41.42</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>4311197045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-20.38</v>
       </c>
@@ -2171,8 +2332,11 @@
       <c r="D27">
         <v>-18.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>4311239576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-20.38</v>
       </c>
@@ -2185,8 +2349,11 @@
       <c r="D28">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>4311402501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-17.75</v>
       </c>
@@ -2199,8 +2366,11 @@
       <c r="D29">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>6204069706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-20.38</v>
       </c>
@@ -2213,8 +2383,11 @@
       <c r="D30">
         <v>-19.73</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>6305449033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-17.100000000000001</v>
       </c>
@@ -2227,8 +2400,11 @@
       <c r="D31">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>6305549612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-19.73</v>
       </c>
@@ -2241,8 +2417,11 @@
       <c r="D32">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>6305893885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-300</v>
       </c>
@@ -2255,8 +2434,11 @@
       <c r="D33">
         <v>-20.38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-20.38</v>
       </c>
@@ -2270,7 +2452,7 @@
         <v>-17.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-20.38</v>
       </c>
@@ -2284,7 +2466,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-19.07</v>
       </c>
@@ -2298,7 +2480,7 @@
         <v>-22.36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-19.73</v>
       </c>
@@ -2312,7 +2494,7 @@
         <v>-19.73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>SUM(A1:A37)</f>
         <v>-1063.3700000000001</v>
@@ -2328,7 +2510,7 @@
         <v>-19.07</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>SUM(C2:C38)</f>
         <v>-1042.3399999999999</v>
@@ -2339,6 +2521,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J1:J229">
+    <sortCondition ref="J1:J229"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
